--- a/biology/Zoologie/Fulvetta_montagnarde/Fulvetta_montagnarde.xlsx
+++ b/biology/Zoologie/Fulvetta_montagnarde/Fulvetta_montagnarde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fulvetta striaticollis
 La Fulvetta montagnarde (Fulvetta striaticollis), anciennement Alcippe montagnard, est une espèce d’oiseaux de la famille des Paradoxornithidae, longtemps incluse dans le genre Alcippe. Cette espèce est considérée comme monotypique.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est endémique des montagnes du centre de la Chine.
 </t>
